--- a/data/Nils_140621_20210614-124335/Results.xlsx
+++ b/data/Nils_140621_20210614-124335/Results.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Calc" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
     <sheet name="Constants" sheetId="4" r:id="rId4"/>
+    <sheet name="Options" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="169">
   <si>
     <t>Lab. #</t>
   </si>
@@ -600,6 +601,18 @@
   </si>
   <si>
     <t>a230232_init_err</t>
+  </si>
+  <si>
+    <t>Mean method</t>
+  </si>
+  <si>
+    <t>Outlier detection method</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2073,7 @@
     <col min="51" max="51" width="19.7109375" customWidth="1"/>
     <col min="52" max="52" width="12.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
-    <col min="54" max="54" width="19.7109375" customWidth="1"/>
+    <col min="54" max="54" width="18.7109375" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
     <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
@@ -2558,10 +2571,10 @@
         <v>1.481569202279422E-07</v>
       </c>
       <c r="AT3" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU3" s="3">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>108</v>
@@ -2725,10 +2738,10 @@
         <v>5.6867</v>
       </c>
       <c r="AP4" s="4">
-        <v>0.0278</v>
+        <v>0.0281</v>
       </c>
       <c r="AQ4" s="4">
-        <v>0.4888599715124765</v>
+        <v>0.4941354388309565</v>
       </c>
       <c r="AR4" s="4">
         <v>0.006326087187742317</v>
@@ -2737,22 +2750,22 @@
         <v>1.416930256586861E-05</v>
       </c>
       <c r="AT4" s="4">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU4" s="4">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV4" s="4">
-        <v>3.2729</v>
+        <v>0.0886</v>
       </c>
       <c r="AW4" s="4">
-        <v>1.2147</v>
+        <v>2.7467</v>
       </c>
       <c r="AX4" s="4">
-        <v>1.220708754497013</v>
+        <v>2.8725760389326</v>
       </c>
       <c r="AY4" s="4">
-        <v>37.11387454551009</v>
+        <v>3100.112866817156</v>
       </c>
       <c r="AZ4" s="4" t="s">
         <v>26</v>
@@ -2761,25 +2774,25 @@
         <v>15</v>
       </c>
       <c r="BB4" s="4">
-        <v>11.33660425658148</v>
+        <v>11.23518665857649</v>
       </c>
       <c r="BC4" s="4">
-        <v>0.817901740251617</v>
+        <v>0.8143393995188388</v>
       </c>
       <c r="BD4" s="4">
-        <v>3214.9</v>
+        <v>30.59999999999999</v>
       </c>
       <c r="BE4" s="4">
-        <v>610.3543772485065</v>
+        <v>1436.2880194663</v>
       </c>
       <c r="BF4" s="4">
-        <v>37.29746568783076</v>
+        <v>3242.185145522122</v>
       </c>
       <c r="BG4" s="4">
         <v>100</v>
       </c>
       <c r="BH4" s="4">
-        <v>99.7</v>
+        <v>52.32</v>
       </c>
     </row>
     <row r="5" spans="1:60" s="3" customFormat="1">
@@ -2919,10 +2932,10 @@
         <v>9.586020006471028E-08</v>
       </c>
       <c r="AT5" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU5" s="3">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="3" t="s">
         <v>108</v>
@@ -3098,22 +3111,22 @@
         <v>1.225077585227359E-06</v>
       </c>
       <c r="AT6" s="4">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU6" s="4">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="4">
-        <v>1.1786</v>
+        <v>0.8772</v>
       </c>
       <c r="AW6" s="4">
-        <v>0.1195</v>
+        <v>0.2744</v>
       </c>
       <c r="AX6" s="4">
-        <v>0.1175585040067487</v>
+        <v>0.2685446995369102</v>
       </c>
       <c r="AY6" s="4">
-        <v>10.13914814186323</v>
+        <v>31.281349749202</v>
       </c>
       <c r="AZ6" s="4" t="s">
         <v>27</v>
@@ -3122,25 +3135,25 @@
         <v>16</v>
       </c>
       <c r="BB6" s="4">
-        <v>6.561155758987237</v>
+        <v>6.555577416774032</v>
       </c>
       <c r="BC6" s="4">
-        <v>0.6808613267105914</v>
+        <v>0.6802978020319286</v>
       </c>
       <c r="BD6" s="4">
-        <v>1120.6</v>
+        <v>819.1999999999999</v>
       </c>
       <c r="BE6" s="4">
-        <v>58.77925200337434</v>
+        <v>134.2723497684551</v>
       </c>
       <c r="BF6" s="4">
-        <v>9.974419141926749</v>
+        <v>30.61385083640107</v>
       </c>
       <c r="BG6" s="4">
         <v>100</v>
       </c>
       <c r="BH6" s="4">
-        <v>100</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="7" spans="1:60" s="3" customFormat="1">
@@ -3280,10 +3293,10 @@
         <v>1.429935424793146E-07</v>
       </c>
       <c r="AT7" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU7" s="3">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="3" t="s">
         <v>108</v>
@@ -3447,10 +3460,10 @@
         <v>2.2682</v>
       </c>
       <c r="AP8" s="4">
-        <v>0.02</v>
+        <v>0.0196</v>
       </c>
       <c r="AQ8" s="4">
-        <v>0.8817564588660611</v>
+        <v>0.8641213296887398</v>
       </c>
       <c r="AR8" s="4">
         <v>0.000718747269486578</v>
@@ -3459,22 +3472,22 @@
         <v>1.342309806661408E-06</v>
       </c>
       <c r="AT8" s="4">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU8" s="4">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV8" s="4">
-        <v>1.9955</v>
+        <v>1.6439</v>
       </c>
       <c r="AW8" s="4">
-        <v>0.1363</v>
+        <v>0.3106</v>
       </c>
       <c r="AX8" s="4">
-        <v>0.1379243268812992</v>
+        <v>0.3136715422595171</v>
       </c>
       <c r="AY8" s="4">
-        <v>6.830368328739664</v>
+        <v>18.89409331467851</v>
       </c>
       <c r="AZ8" s="4" t="s">
         <v>28</v>
@@ -3483,19 +3496,19 @@
         <v>42</v>
       </c>
       <c r="BB8" s="4">
-        <v>7.178543736510964</v>
+        <v>7.171424457450814</v>
       </c>
       <c r="BC8" s="4">
-        <v>1.334616428814618</v>
+        <v>1.333304795195939</v>
       </c>
       <c r="BD8" s="4">
-        <v>1937.5</v>
+        <v>1585.9</v>
       </c>
       <c r="BE8" s="4">
-        <v>68.96216344064959</v>
+        <v>156.8357711297585</v>
       </c>
       <c r="BF8" s="4">
-        <v>6.911767821663703</v>
+        <v>19.08093815070972</v>
       </c>
       <c r="BG8" s="4">
         <v>100</v>
@@ -3641,10 +3654,10 @@
         <v>1.208471669906226E-07</v>
       </c>
       <c r="AT9" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU9" s="3">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="3" t="s">
         <v>108</v>
@@ -3820,22 +3833,22 @@
         <v>5.485150308821937E-07</v>
       </c>
       <c r="AT10" s="4">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU10" s="4">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV10" s="4">
-        <v>1.5197</v>
+        <v>1.4161</v>
       </c>
       <c r="AW10" s="4">
-        <v>0.0427</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="AX10" s="4">
-        <v>0.04311822599758917</v>
+        <v>0.09341913635545361</v>
       </c>
       <c r="AY10" s="4">
-        <v>2.809765085214187</v>
+        <v>6.623826000988631</v>
       </c>
       <c r="AZ10" s="4" t="s">
         <v>29</v>
@@ -3844,19 +3857,19 @@
         <v>43.5</v>
       </c>
       <c r="BB10" s="4">
-        <v>9.022125423519274</v>
+        <v>9.019488051623574</v>
       </c>
       <c r="BC10" s="4">
-        <v>1.247856935114615</v>
+        <v>1.247493969493019</v>
       </c>
       <c r="BD10" s="4">
-        <v>1461.7</v>
+        <v>1358.1</v>
       </c>
       <c r="BE10" s="4">
-        <v>21.55911299879459</v>
+        <v>46.70956817772681</v>
       </c>
       <c r="BF10" s="4">
-        <v>2.837285385114771</v>
+        <v>6.596930750332152</v>
       </c>
       <c r="BG10" s="4">
         <v>100</v>
@@ -4002,10 +4015,10 @@
         <v>1.095547951962753E-07</v>
       </c>
       <c r="AT11" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU11" s="3">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="3" t="s">
         <v>108</v>
@@ -4169,10 +4182,10 @@
         <v>1.484</v>
       </c>
       <c r="AP12" s="4">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="AQ12" s="4">
-        <v>0.8288409703504043</v>
+        <v>0.8355795148247979</v>
       </c>
       <c r="AR12" s="4">
         <v>6.894284185259156E-05</v>
@@ -4181,22 +4194,22 @@
         <v>1.5618948969789E-07</v>
       </c>
       <c r="AT12" s="4">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU12" s="4">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV12" s="4">
-        <v>1.4578</v>
+        <v>1.4241</v>
       </c>
       <c r="AW12" s="4">
-        <v>0.0181</v>
+        <v>0.032</v>
       </c>
       <c r="AX12" s="4">
-        <v>0.01805285457368427</v>
+        <v>0.03240863705266638</v>
       </c>
       <c r="AY12" s="4">
-        <v>1.241596926876115</v>
+        <v>2.247033213959694</v>
       </c>
       <c r="AZ12" s="4" t="s">
         <v>30</v>
@@ -4205,19 +4218,19 @@
         <v>44.5</v>
       </c>
       <c r="BB12" s="4">
-        <v>5.185949282399907</v>
+        <v>5.185456104328665</v>
       </c>
       <c r="BC12" s="4">
-        <v>1.394194223430665</v>
+        <v>1.394061690580734</v>
       </c>
       <c r="BD12" s="4">
-        <v>1399.8</v>
+        <v>1366.1</v>
       </c>
       <c r="BE12" s="4">
-        <v>9.026427286842138</v>
+        <v>16.20431852633319</v>
       </c>
       <c r="BF12" s="4">
-        <v>1.238362914918663</v>
+        <v>2.275727621140817</v>
       </c>
       <c r="BG12" s="4">
         <v>100</v>
@@ -4363,10 +4376,10 @@
         <v>1.095547951962753E-07</v>
       </c>
       <c r="AT13" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AU13" s="3">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="AV13" s="3" t="s">
         <v>108</v>
@@ -4421,7 +4434,7 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
@@ -4434,7 +4447,7 @@
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
@@ -4500,7 +4513,7 @@
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>94</v>
@@ -4559,10 +4572,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="3">
-        <v>13698.09512456227</v>
+        <v>13.69809512456227</v>
       </c>
       <c r="D3" s="3">
-        <v>1.759474874925892</v>
+        <v>0.001759474874925892</v>
       </c>
       <c r="E3" s="3">
         <v>0.8445686754657139</v>
@@ -4615,10 +4628,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="4">
-        <v>1365.197007551472</v>
+        <v>1.365197007551472</v>
       </c>
       <c r="D4" s="4">
-        <v>0.07924839065715047</v>
+        <v>7.924839065715048E-05</v>
       </c>
       <c r="E4" s="4">
         <v>26.3945541296852</v>
@@ -4648,19 +4661,19 @@
         <v>5.6867</v>
       </c>
       <c r="N4" s="4">
-        <v>0.0278</v>
+        <v>0.0281</v>
       </c>
       <c r="O4" s="4">
-        <v>3.2729</v>
+        <v>0.0886</v>
       </c>
       <c r="P4" s="4">
-        <v>1.2147</v>
+        <v>2.7467</v>
       </c>
       <c r="Q4" s="4">
-        <v>11.33660425658148</v>
+        <v>11.23518665857649</v>
       </c>
       <c r="R4" s="4">
-        <v>0.817901740251617</v>
+        <v>0.8143393995188388</v>
       </c>
       <c r="S4" s="4">
         <v>15</v>
@@ -4674,10 +4687,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="3">
-        <v>13699.61266041049</v>
+        <v>13.69961266041049</v>
       </c>
       <c r="D5" s="3">
-        <v>2.176326591270702</v>
+        <v>0.002176326591270702</v>
       </c>
       <c r="E5" s="3">
         <v>0.8175631367751388</v>
@@ -4730,10 +4743,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="4">
-        <v>1473.913027169305</v>
+        <v>1.473913027169305</v>
       </c>
       <c r="D6" s="4">
-        <v>0.07936460738090791</v>
+        <v>7.936460738090791E-05</v>
       </c>
       <c r="E6" s="4">
         <v>2.775641179760489</v>
@@ -4766,16 +4779,16 @@
         <v>0.0108</v>
       </c>
       <c r="O6" s="4">
-        <v>1.1786</v>
+        <v>0.8772</v>
       </c>
       <c r="P6" s="4">
-        <v>0.1195</v>
+        <v>0.2744</v>
       </c>
       <c r="Q6" s="4">
-        <v>6.561155758987237</v>
+        <v>6.555577416774032</v>
       </c>
       <c r="R6" s="4">
-        <v>0.6808613267105914</v>
+        <v>0.6802978020319286</v>
       </c>
       <c r="S6" s="4">
         <v>16</v>
@@ -4789,10 +4802,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="3">
-        <v>13699.67125021019</v>
+        <v>13.69967125021019</v>
       </c>
       <c r="D7" s="3">
-        <v>2.058523330647374</v>
+        <v>0.002058523330647374</v>
       </c>
       <c r="E7" s="3">
         <v>0.8308047782576213</v>
@@ -4845,10 +4858,10 @@
         <v>28</v>
       </c>
       <c r="C8" s="4">
-        <v>623.6386169776451</v>
+        <v>0.6236386169776451</v>
       </c>
       <c r="D8" s="4">
-        <v>0.03270691125681986</v>
+        <v>3.270691125681985E-05</v>
       </c>
       <c r="E8" s="4">
         <v>1.369913157142772</v>
@@ -4878,19 +4891,19 @@
         <v>2.2682</v>
       </c>
       <c r="N8" s="4">
-        <v>0.02</v>
+        <v>0.0196</v>
       </c>
       <c r="O8" s="4">
-        <v>1.9955</v>
+        <v>1.6439</v>
       </c>
       <c r="P8" s="4">
-        <v>0.1363</v>
+        <v>0.3106</v>
       </c>
       <c r="Q8" s="4">
-        <v>7.178543736510964</v>
+        <v>7.171424457450814</v>
       </c>
       <c r="R8" s="4">
-        <v>1.334616428814618</v>
+        <v>1.333304795195939</v>
       </c>
       <c r="S8" s="4">
         <v>42</v>
@@ -4904,10 +4917,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="3">
-        <v>13702.06871161103</v>
+        <v>13.70206871161103</v>
       </c>
       <c r="D9" s="3">
-        <v>1.586517628547444</v>
+        <v>0.001586517628547444</v>
       </c>
       <c r="E9" s="3">
         <v>0.8259648440843403</v>
@@ -4960,10 +4973,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="4">
-        <v>666.4729845855195</v>
+        <v>0.6664729845855195</v>
       </c>
       <c r="D10" s="4">
-        <v>0.03958969975714871</v>
+        <v>3.958969975714871E-05</v>
       </c>
       <c r="E10" s="4">
         <v>0.4334362936286125</v>
@@ -4996,16 +5009,16 @@
         <v>0.0155</v>
       </c>
       <c r="O10" s="4">
-        <v>1.5197</v>
+        <v>1.4161</v>
       </c>
       <c r="P10" s="4">
-        <v>0.0427</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="Q10" s="4">
-        <v>9.022125423519274</v>
+        <v>9.019488051623574</v>
       </c>
       <c r="R10" s="4">
-        <v>1.247856935114615</v>
+        <v>1.247493969493019</v>
       </c>
       <c r="S10" s="4">
         <v>43.5</v>
@@ -5019,10 +5032,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="3">
-        <v>13705.07226058325</v>
+        <v>13.70507226058325</v>
       </c>
       <c r="D11" s="3">
-        <v>2.520680629295221</v>
+        <v>0.002520680629295221</v>
       </c>
       <c r="E11" s="3">
         <v>0.8288058203959195</v>
@@ -5075,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="4">
-        <v>604.0089737663583</v>
+        <v>0.6040089737663583</v>
       </c>
       <c r="D12" s="4">
-        <v>0.03878528740696877</v>
+        <v>3.878528740696876E-05</v>
       </c>
       <c r="E12" s="4">
         <v>0.1272671742550405</v>
@@ -5108,19 +5121,19 @@
         <v>1.484</v>
       </c>
       <c r="N12" s="4">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="O12" s="4">
-        <v>1.4578</v>
+        <v>1.4241</v>
       </c>
       <c r="P12" s="4">
-        <v>0.0181</v>
+        <v>0.032</v>
       </c>
       <c r="Q12" s="4">
-        <v>5.185949282399907</v>
+        <v>5.185456104328665</v>
       </c>
       <c r="R12" s="4">
-        <v>1.394194223430665</v>
+        <v>1.394061690580734</v>
       </c>
       <c r="S12" s="4">
         <v>44.5</v>
@@ -5134,10 +5147,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3">
-        <v>13705.07226058325</v>
+        <v>13.70507226058325</v>
       </c>
       <c r="D13" s="3">
-        <v>2.520680629295221</v>
+        <v>0.002520680629295221</v>
       </c>
       <c r="E13" s="3">
         <v>0.8288058203959195</v>
@@ -5492,7 +5505,7 @@
         <v>163</v>
       </c>
       <c r="B37" s="6">
-        <v>3.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5500,7 +5513,40 @@
         <v>164</v>
       </c>
       <c r="B38" s="6">
-        <v>1.75</v>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
